--- a/Project Work Schedule.xlsx
+++ b/Project Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Proof of concept</t>
   </si>
@@ -75,9 +75,6 @@
 Select open source support, writeup for report.</t>
   </si>
   <si>
-    <t>Program drone to follow tag.</t>
-  </si>
-  <si>
     <t>Program drone to follow color.</t>
   </si>
   <si>
@@ -97,13 +94,47 @@
   <si>
     <t>Complete presentation.
 Deliver presentation.</t>
+  </si>
+  <si>
+    <t>Program drone to follow detection tag.</t>
+  </si>
+  <si>
+    <t>SW installs</t>
+  </si>
+  <si>
+    <t>Install the following tools in Linux box:
+  - Netbeans
+  - ROS
+  - Open CV
+  - AR Drone SDK</t>
+  </si>
+  <si>
+    <t>Tool integration references:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR Drone and ROS: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetBeans and ROS: </t>
+  </si>
+  <si>
+    <t>http://wiki.ros.org/IDEs#NetBeans</t>
+  </si>
+  <si>
+    <t>http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-getting-started/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetBeans and Open CV: </t>
+  </si>
+  <si>
+    <t>https://thefreecoder.wordpress.com/2012/09/10/use-netbeans-to-work-with-opencv-on-ubuntuand-linux-mint-and-other-distros-too/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,10 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,11 +424,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -413,6 +527,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -441,126 +583,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -847,17 +870,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.140625" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="1" customWidth="1"/>
   </cols>
@@ -867,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>2</v>
@@ -897,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="20" t="str">
-        <f ca="1">IF(F2="Yes","Yes",IF(A2&gt;TODAY(),"Yes",IF(A2=TODAY(),"Due today","No")))</f>
+        <f t="shared" ref="E2:E10" ca="1" si="0">IF(F2="Yes","Yes",IF(A2&gt;TODAY(),"Yes",IF(A2=TODAY(),"Due today","No")))</f>
         <v>Yes</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -909,7 +932,7 @@
         <v>42308</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" ref="B3:B9" si="0">TEXT(A3,"dddd")</f>
+        <f t="shared" ref="B3:B10" si="1">TEXT(A3,"dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -919,73 +942,73 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f ca="1">IF(F3="Yes","Yes",IF(A3&gt;TODAY(),"Yes",IF(A3=TODAY(),"Due today","No")))</f>
-        <v>Due today</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>42315</v>
+        <v>42310</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Saturday</v>
+        <f t="shared" si="1"/>
+        <v>Monday</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f ca="1">IF(F4="Yes","Yes",IF(A4&gt;TODAY(),"Yes",IF(A4=TODAY(),"Due today","No")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>42318</v>
+        <v>42315</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Tuesday</v>
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f ca="1">IF(F5="Yes","Yes",IF(A5&gt;TODAY(),"Yes",IF(A5=TODAY(),"Due today","No")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>42325</v>
+        <v>42318</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f ca="1">IF(F6="Yes","Yes",IF(A6&gt;TODAY(),"Yes",IF(A6=TODAY(),"Due today","No")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -994,85 +1017,157 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>42332</v>
+        <v>42325</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f ca="1">IF(F7="Yes","Yes",IF(A7&gt;TODAY(),"Yes",IF(A7=TODAY(),"Due today","No")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>42353</v>
+        <v>42332</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f ca="1">IF(F8="Yes","Yes",IF(A8&gt;TODAY(),"Yes",IF(A8=TODAY(),"Due today","No")))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>42353</v>
       </c>
-      <c r="B9" s="12" t="str">
-        <f t="shared" si="0"/>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>42353</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="14" t="str">
-        <f ca="1">IF(F9="Yes","Yes",IF(A9&gt;TODAY(),"Yes",IF(A9=TODAY(),"Due today","No")))</f>
+      <c r="D10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F12">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:F12 D14:D15 E13:F13 A13:C13 C16">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$F2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$E2="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F9">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A2:F10">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$E2="Due today"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>$F14="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>$E14="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$F15="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$E15="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" location="NetBeans"/>
+    <hyperlink ref="D14" r:id="rId2"/>
+    <hyperlink ref="D16" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Project Work Schedule.xlsx
+++ b/Project Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Proof of concept</t>
   </si>
@@ -102,39 +102,73 @@
     <t>SW installs</t>
   </si>
   <si>
-    <t>Install the following tools in Linux box:
-  - Netbeans
-  - ROS
+    <t>Complete Robohub tutorials</t>
+  </si>
+  <si>
+    <t>Tutorials</t>
+  </si>
+  <si>
+    <t>1)  http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-getting-started/</t>
+  </si>
+  <si>
+    <t>2)  http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-joystick-control/</t>
+  </si>
+  <si>
+    <t>3)  http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-handling-feedback/</t>
+  </si>
+  <si>
+    <t>Install ardrone_autonomy package</t>
+  </si>
+  <si>
+    <t>https://svn.ardrone.org/boards/1/topics/show/5942</t>
+  </si>
+  <si>
+    <t>http://gauth.fr/2011/09/introduction-to-the-ar-drone-sdk/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Install the following tools in Linux box:
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Netbeans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  - Qt Creator - DONE
+  - ROS - Done
+  - Git - DONE
   - Open CV
-  - AR Drone SDK</t>
-  </si>
-  <si>
-    <t>Tool integration references:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR Drone and ROS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetBeans and ROS: </t>
-  </si>
-  <si>
-    <t>http://wiki.ros.org/IDEs#NetBeans</t>
-  </si>
-  <si>
-    <t>http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-getting-started/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NetBeans and Open CV: </t>
-  </si>
-  <si>
-    <t>https://thefreecoder.wordpress.com/2012/09/10/use-netbeans-to-work-with-opencv-on-ubuntuand-linux-mint-and-other-distros-too/</t>
+  - AR Drone SDK - DONE</t>
+    </r>
+  </si>
+  <si>
+    <t>Almost done w this one…</t>
+  </si>
+  <si>
+    <t>AR Drone SDK install help</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,14 +467,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -450,6 +501,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -492,6 +550,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -521,41 +586,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -870,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="20" t="str">
-        <f t="shared" ref="E2:E10" ca="1" si="0">IF(F2="Yes","Yes",IF(A2&gt;TODAY(),"Yes",IF(A2=TODAY(),"Due today","No")))</f>
+        <f t="shared" ref="E2:E12" ca="1" si="0">IF(F2="Yes","Yes",IF(A2&gt;TODAY(),"Yes",IF(A2=TODAY(),"Due today","No")))</f>
         <v>Yes</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -932,7 +962,7 @@
         <v>42308</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" ref="B3:B10" si="1">TEXT(A3,"dddd")</f>
+        <f t="shared" ref="B3:B12" si="1">TEXT(A3,"dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -949,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>42310</v>
       </c>
@@ -961,11 +991,11 @@
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>9</v>
@@ -976,80 +1006,80 @@
         <v>42315</v>
       </c>
       <c r="B5" s="7" t="str">
+        <f t="shared" ref="B5:B6" si="2">TEXT(A5,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ref="E5:E6" ca="1" si="3">IF(F5="Yes","Yes",IF(A5&gt;TODAY(),"Yes",IF(A5=TODAY(),"Due today","No")))</f>
+        <v>Due today</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>42315</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>42315</v>
+      </c>
+      <c r="B7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>42318</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>42325</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
+        <v>Due today</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>42332</v>
+        <v>42318</v>
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1059,19 +1089,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>42353</v>
+        <v>42325</v>
       </c>
       <c r="B9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1081,93 +1111,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>42353</v>
-      </c>
-      <c r="B10" s="12" t="str">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>42332</v>
+      </c>
+      <c r="B10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="14" t="str">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>28</v>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>42353</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>42353</v>
+      </c>
+      <c r="B12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="27" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="29" t="s">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="28" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F12 D14:D15 E13:F13 A13:C13 C16">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:F4 A7:F14 C15">
+    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>$F2="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$E2="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F10">
-    <cfRule type="expression" dxfId="10" priority="6">
+  <conditionalFormatting sqref="A2:F4 A7:F12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$E2="Due today"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
-      <formula>$F14="Yes"</formula>
+  <conditionalFormatting sqref="A5:F5">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>$F5="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$E14="No"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$E5="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$F15="Yes"</formula>
+  <conditionalFormatting sqref="A5:F5">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$E5="Due today"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$E15="No"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:F6">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$F6="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$E6="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:F6">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$E6="Due today"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" location="NetBeans"/>
-    <hyperlink ref="D14" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId1" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-getting-started/"/>
+    <hyperlink ref="C17" r:id="rId2" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-joystick-control/"/>
+    <hyperlink ref="C18" r:id="rId3" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-handling-feedback/"/>
+    <hyperlink ref="D20" r:id="rId4"/>
+    <hyperlink ref="D21" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Project Work Schedule.xlsx
+++ b/Project Work Schedule.xlsx
@@ -24,22 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Proof of concept</t>
   </si>
   <si>
-    <t>Sub-tasks</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Demonstrate ability of AR Drone to track red image.
-Use EZ-Builder built in tools.
-Record video of demo and write up task for report.</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -61,50 +50,18 @@
     <t>Partial report</t>
   </si>
   <si>
-    <t>Development task</t>
-  </si>
-  <si>
     <t>Final Report</t>
   </si>
   <si>
     <t>Presentation</t>
   </si>
   <si>
-    <t>Select development platform, writeup for report.
-Select development environment, writeup for report.
-Select open source support, writeup for report.</t>
-  </si>
-  <si>
-    <t>Program drone to follow color.</t>
-  </si>
-  <si>
-    <t>Program drone to follow image.</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Update report to include all work to date.
-Deliver partial report.</t>
-  </si>
-  <si>
-    <t>Complete writeup for final report.
-Deliver final report.</t>
-  </si>
-  <si>
-    <t>Complete presentation.
-Deliver presentation.</t>
-  </si>
-  <si>
-    <t>Program drone to follow detection tag.</t>
-  </si>
-  <si>
     <t>SW installs</t>
   </si>
   <si>
-    <t>Complete Robohub tutorials</t>
-  </si>
-  <si>
     <t>Tutorials</t>
   </si>
   <si>
@@ -117,58 +74,136 @@
     <t>3)  http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-handling-feedback/</t>
   </si>
   <si>
-    <t>Install ardrone_autonomy package</t>
-  </si>
-  <si>
     <t>https://svn.ardrone.org/boards/1/topics/show/5942</t>
   </si>
   <si>
     <t>http://gauth.fr/2011/09/introduction-to-the-ar-drone-sdk/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Install the following tools in Linux box:
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Netbeans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  - Qt Creator - DONE
-  - ROS - Done
-  - Git - DONE
-  - Open CV
-  - AR Drone SDK - DONE</t>
-    </r>
-  </si>
-  <si>
-    <t>Almost done w this one…</t>
-  </si>
-  <si>
     <t>AR Drone SDK install help</t>
+  </si>
+  <si>
+    <t>Development platform - DONE
+Development environment - DONE
+Tools - DONE</t>
+  </si>
+  <si>
+    <t>ROS - Done
+Qt Creator - DONE
+Git - DONE
+AR Drone SDK - DONE
+Ardrone_Autonomy package - DONE</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Update report to include all work to date
+Deliver partial report</t>
+  </si>
+  <si>
+    <t>Detection tag tracking program</t>
+  </si>
+  <si>
+    <t>Open CV</t>
+  </si>
+  <si>
+    <t>Color tracking program</t>
+  </si>
+  <si>
+    <t>Image tracking program</t>
+  </si>
+  <si>
+    <t>Complete writeup for final report
+Deliver final report</t>
+  </si>
+  <si>
+    <t>Complete presentation
+Deliver presentation</t>
+  </si>
+  <si>
+    <t>Demo drone color tracking ability - DONE
+Capture video of demo - DONE</t>
+  </si>
+  <si>
+    <t>Task Details</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Open CV tutorials</t>
+  </si>
+  <si>
+    <t>http://petrkout.com/linux/parrot-ardrone-2-0-video-streaming-through-opencv-in-linux/</t>
+  </si>
+  <si>
+    <t>https://help.ubuntu.com/community/OpenCV</t>
+  </si>
+  <si>
+    <t>http://gauth.fr/2011/09/use-opencv-with-the-ar-drone-sdk/</t>
+  </si>
+  <si>
+    <t>http://gauth.fr/category/opencv/</t>
+  </si>
+  <si>
+    <t>Did this as part of "Getting started" tutorial,
+should be able to play w this a bit more and then write up..</t>
+  </si>
+  <si>
+    <t>Complete Robohub tutorials
+    Getting started - DONE
+    Joystick control - SKIP
+    Handling feedback - DONE</t>
+  </si>
+  <si>
+    <t>Complete section II.C "Related Work"</t>
+  </si>
+  <si>
+    <t>Complete section III.D "Development Tools"</t>
+  </si>
+  <si>
+    <t>Complete section III.E "Application Development"</t>
+  </si>
+  <si>
+    <t>Complete section III.F "Future Work"</t>
+  </si>
+  <si>
+    <t>Report: Related work</t>
+  </si>
+  <si>
+    <t>Report: Tools</t>
+  </si>
+  <si>
+    <t>Development: tags</t>
+  </si>
+  <si>
+    <t>Development: color</t>
+  </si>
+  <si>
+    <t>Development: image</t>
+  </si>
+  <si>
+    <t>Report: Follow-Me</t>
+  </si>
+  <si>
+    <t>Report: Future Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report: Results </t>
+  </si>
+  <si>
+    <t>Complete section IV "Results / Conclusions"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,24 +227,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,171 +265,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,72 +285,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -522,6 +373,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -536,6 +394,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -586,6 +451,118 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -900,370 +877,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13">
+        <v>42303</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>TEXT(D2,"dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f t="shared" ref="F2:F17" ca="1" si="0">IF(G2="Yes","Yes",IF(D2&gt;TODAY(),"Yes",IF(D2=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>42303</v>
-      </c>
-      <c r="B2" s="17" t="str">
-        <f>TEXT(A2,"dddd")</f>
-        <v>Monday</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="20" t="str">
-        <f t="shared" ref="E2:E12" ca="1" si="0">IF(F2="Yes","Yes",IF(A2&gt;TODAY(),"Yes",IF(A2=TODAY(),"Due today","No")))</f>
-        <v>Yes</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13">
         <v>42308</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f t="shared" ref="B3:B12" si="1">TEXT(A3,"dddd")</f>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E17" si="1">TEXT(D3,"dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="str">
+      <c r="F3" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>42310</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Monday</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="G3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <f t="shared" ref="A4:A5" si="2">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13">
         <v>42315</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" ref="B5:B6" si="2">TEXT(A5,"dddd")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" ref="E5:E6" ca="1" si="3">IF(F5="Yes","Yes",IF(A5&gt;TODAY(),"Yes",IF(A5=TODAY(),"Due today","No")))</f>
-        <v>Due today</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>42315</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>Saturday</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Yes</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>42315</v>
-      </c>
-      <c r="B7" s="7" t="str">
+      <c r="E4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F4" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="13">
+        <v>42316</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5" si="3">TEXT(D5,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>42325</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>TEXT(D6,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f ca="1">IF(G6="Yes","Yes",IF(D6&gt;TODAY(),"Yes",IF(D6=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <f t="shared" ref="A7:A17" si="4">A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="str">
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13">
+        <v>42325</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" ref="E7:E9" si="5">TEXT(D7,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f ca="1">IF(G7="Yes","Yes",IF(D7&gt;TODAY(),"Yes",IF(D7=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13">
+        <v>42336</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" ref="E8" si="6">TEXT(D8,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f ca="1">IF(G8="Yes","Yes",IF(D8&gt;TODAY(),"Yes",IF(D8=TODAY(),"Due today","No")))</f>
+        <v>Due today</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="13">
+        <v>42337</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>Sunday</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f ca="1">IF(G9="Yes","Yes",IF(D9&gt;TODAY(),"Yes",IF(D9=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13">
+        <v>42343</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>TEXT(D10,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f ca="1">IF(G10="Yes","Yes",IF(D10&gt;TODAY(),"Yes",IF(D10=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13">
+        <v>42343</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Due today</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>42318</v>
-      </c>
-      <c r="B8" s="7" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13">
+        <v>42344</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13">
+        <v>42350</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f ca="1">IF(G13="Yes","Yes",IF(D13&gt;TODAY(),"Yes",IF(D13=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="13">
+        <v>42350</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" ref="E14" si="7">TEXT(D14,"dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f ca="1">IF(G14="Yes","Yes",IF(D14&gt;TODAY(),"Yes",IF(D14=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="13">
+        <v>42351</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" ref="E15" si="8">TEXT(D15,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f ca="1">IF(G15="Yes","Yes",IF(D15&gt;TODAY(),"Yes",IF(D15=TODAY(),"Due today","No")))</f>
+        <v>Yes</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13">
+        <v>42353</v>
+      </c>
+      <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="str">
+      <c r="F16" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G16" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>42325</v>
-      </c>
-      <c r="B9" s="7" t="str">
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="13">
+        <v>42353</v>
+      </c>
+      <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="str">
+      <c r="F17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>42332</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="G17" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>42353</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>42353</v>
-      </c>
-      <c r="B12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="28" t="s">
-        <v>30</v>
+    </row>
+    <row r="29" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F4 A7:F14 C15">
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
-      <formula>$F2="Yes"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$E2="No"</formula>
+  <conditionalFormatting sqref="F2:G4 A2:E5 A6:G7 B9:G12 B16:B17 A8:A17 C16:G18 A18:B19">
+    <cfRule type="expression" dxfId="17" priority="29" stopIfTrue="1">
+      <formula>$G2="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="31">
+      <formula>$F2="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F4 A7:F12">
+  <conditionalFormatting sqref="F2:G4 A2:E5 A6:G7 B9:G12 B16:G17 A8:A17">
+    <cfRule type="expression" dxfId="15" priority="30">
+      <formula>$F2="Due today"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:G5">
+    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
+      <formula>$G5="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>$F5="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:G5">
+    <cfRule type="expression" dxfId="12" priority="23">
+      <formula>$F5="Due today"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+      <formula>$G8="Yes"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$E2="Due today"</formula>
+      <formula>$F8="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F5">
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$F8="Due today"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:G13">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>$G13="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$F13="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:G13">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$F13="Due today"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:G14">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$F5="Yes"</formula>
+      <formula>$G14="Yes"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$E5="No"</formula>
+      <formula>$F14="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F5">
+  <conditionalFormatting sqref="B14:G14">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$E5="Due today"</formula>
+      <formula>$F14="Due today"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:F6">
+  <conditionalFormatting sqref="B15:G15">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$F6="Yes"</formula>
+      <formula>$G15="Yes"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$E6="No"</formula>
+      <formula>$F15="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:F6">
+  <conditionalFormatting sqref="B15:G15">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$E6="Due today"</formula>
+      <formula>$F15="Due today"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-getting-started/"/>
-    <hyperlink ref="C17" r:id="rId2" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-joystick-control/"/>
-    <hyperlink ref="C18" r:id="rId3" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-handling-feedback/"/>
-    <hyperlink ref="D20" r:id="rId4"/>
-    <hyperlink ref="D21" r:id="rId5"/>
+    <hyperlink ref="B20" r:id="rId1" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-getting-started/"/>
+    <hyperlink ref="B21" r:id="rId2" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-joystick-control/"/>
+    <hyperlink ref="B22" r:id="rId3" display="http://robohub.org/up-and-flying-with-the-ar-drone-and-ros-handling-feedback/"/>
+    <hyperlink ref="B25" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId7"/>
+    <hyperlink ref="B30" r:id="rId8"/>
+    <hyperlink ref="B31" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Project Work Schedule.xlsx
+++ b/Project Work Schedule.xlsx
@@ -327,154 +327,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -880,7 +733,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +949,7 @@
       </c>
       <c r="F8" s="4" t="str">
         <f ca="1">IF(G8="Yes","Yes",IF(D8&gt;TODAY(),"Yes",IF(D8=TODAY(),"Due today","No")))</f>
-        <v>Due today</v>
+        <v>No</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>6</v>
@@ -1123,7 +976,7 @@
       </c>
       <c r="F9" s="4" t="str">
         <f ca="1">IF(G9="Yes","Yes",IF(D9&gt;TODAY(),"Yes",IF(D9=TODAY(),"Due today","No")))</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>6</v>
@@ -1150,7 +1003,7 @@
       </c>
       <c r="F10" s="4" t="str">
         <f ca="1">IF(G10="Yes","Yes",IF(D10&gt;TODAY(),"Yes",IF(D10=TODAY(),"Due today","No")))</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>6</v>
@@ -1179,7 +1032,7 @@
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>6</v>
@@ -1205,7 +1058,7 @@
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>6</v>

--- a/Project Work Schedule.xlsx
+++ b/Project Work Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Proof of concept</t>
   </si>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>http://gauth.fr/category/opencv/</t>
-  </si>
-  <si>
-    <t>Did this as part of "Getting started" tutorial,
-should be able to play w this a bit more and then write up..</t>
   </si>
   <si>
     <t>Complete Robohub tutorials
@@ -733,7 +729,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +853,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13">
         <v>42316</v>
@@ -935,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="13">
         <v>42336</v>
@@ -949,10 +945,10 @@
       </c>
       <c r="F8" s="4" t="str">
         <f ca="1">IF(G8="Yes","Yes",IF(D8&gt;TODAY(),"Yes",IF(D8=TODAY(),"Due today","No")))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -962,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="13">
         <v>42337</v>
@@ -976,20 +972,20 @@
       </c>
       <c r="F9" s="4" t="str">
         <f ca="1">IF(G9="Yes","Yes",IF(D9&gt;TODAY(),"Yes",IF(D9=TODAY(),"Due today","No")))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1003,14 +999,12 @@
       </c>
       <c r="F10" s="4" t="str">
         <f ca="1">IF(G10="Yes","Yes",IF(D10&gt;TODAY(),"Yes",IF(D10=TODAY(),"Due today","No")))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -1018,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -1044,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1070,10 +1064,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="13">
         <v>42350</v>
@@ -1087,7 +1081,7 @@
         <v>Yes</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -1097,10 +1091,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="13">
         <v>42350</v>
@@ -1114,7 +1108,7 @@
         <v>Yes</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -1124,10 +1118,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="13">
         <v>42351</v>
@@ -1141,7 +1135,7 @@
         <v>Yes</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -1168,7 +1162,7 @@
         <v>Yes</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1194,7 +1188,7 @@
         <v>Yes</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
